--- a/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
+++ b/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>050014</t>
+          <t>000880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时创业成长混合A</t>
+          <t>富国研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.35</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002553</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时创业成长混合C</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.35</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000804</t>
+          <t>050014</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投稳利混合A</t>
+          <t>博时创业成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.71</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006844</t>
+          <t>000804</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投稳利混合C</t>
+          <t>中信建投稳利混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>26.71</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.48</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>002553</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>博时创业成长混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000880</t>
+          <t>006844</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国研究精选灵活配置混合</t>
+          <t>中信建投稳利混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003912</t>
+          <t>000880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合A</t>
+          <t>富国研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003913</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合C</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000804</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投稳利混合A</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.77</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006844</t>
+          <t>162205</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投稳利混合C</t>
+          <t>泰达宏利风险预算混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>33.77</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000880</t>
+          <t>000507</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国研究精选灵活配置混合</t>
+          <t>泰达宏利宏达混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.59</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000507</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合A</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000508</t>
+          <t>560006</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合B</t>
+          <t>益民核心增长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>78.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>003912</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>泰达宏利启富灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>77.81</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>162205</t>
+          <t>000508</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰达宏利风险预算混合</t>
+          <t>泰达宏利宏达混合B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28.61</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>000804</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>中信建投稳利混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>006844</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>中信建投稳利混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>560006</t>
+          <t>003913</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>益民核心增长混合</t>
+          <t>泰达宏利启富灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>78.04</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
+++ b/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
+++ b/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1638,4 +1639,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
+++ b/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1885,4 +1886,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
+++ b/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,17 +1906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1925,14 +1946,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9992</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1941,14 +1984,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7</v>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1957,14 +2022,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
@@ -1973,13 +2144,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
+++ b/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2065,7 +2066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,17 +2077,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2096,14 +2117,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.34</v>
       </c>
     </row>
     <row r="3">
@@ -2112,14 +2155,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -2128,14 +2193,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -2144,14 +2315,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6">
@@ -2160,13 +2331,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
+++ b/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2236,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,17 +2248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2267,14 +2288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.36</v>
       </c>
     </row>
     <row r="3">
@@ -2283,14 +2326,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>4.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
@@ -2299,14 +2432,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="5">
@@ -2315,14 +2448,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -2331,14 +2464,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
@@ -2347,13 +2480,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
+++ b/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
@@ -504,11 +505,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0.36</v>
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.38</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -724,176 +987,6 @@
       </c>
       <c r="H3" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3144</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008736</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方高股息主题股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008737</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方高股息主题股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -958,36 +1051,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>000880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>富国研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>177.74</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.64</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.9992</t>
+          <t>0.3144</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -996,32 +1089,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000880</t>
+          <t>008736</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国研究精选灵活配置混合</t>
+          <t>南方高股息主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3060</t>
+          <t>0.0431</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1034,36 +1127,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519007</t>
+          <t>008737</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海富通强化回报混合</t>
+          <t>南方高股息主题股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>39.89</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0375</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1072,6 +1165,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9992</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1317,7 +1580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1715,7 +1978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2227,7 +2490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
+++ b/数据整理/stocks/A股/上证主板/600729-重庆百货.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
@@ -521,11 +522,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0.36</v>
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.38</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,318 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +984,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2815</t>
+          <t>0.3407</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1012,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>016313</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>富国研究精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -749,32 +1050,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>562530</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>华夏中证智选1000价值稳健策略ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>96.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0406</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -787,36 +1088,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>519222</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>海富通欣益灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.63</t>
+          <t>31.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -825,12 +1126,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>016313</t>
+          <t>519221</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国研究精选灵活配置混合C</t>
+          <t>海富通欣益灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -840,21 +1141,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>31.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0073</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -863,6 +1164,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -987,176 +1534,6 @@
       </c>
       <c r="H3" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3144</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008736</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方高股息主题股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008737</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方高股息主题股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1221,36 +1598,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>000880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>富国研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>177.74</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.64</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.9992</t>
+          <t>0.3144</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1259,32 +1636,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000880</t>
+          <t>008736</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国研究精选灵活配置混合</t>
+          <t>南方高股息主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3060</t>
+          <t>0.0431</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1297,36 +1674,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519007</t>
+          <t>008737</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海富通强化回报混合</t>
+          <t>南方高股息主题股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>39.89</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0375</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1335,6 +1712,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9992</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1580,7 +2127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1978,7 +2525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2488,288 +3035,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3916</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1879</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>050014</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时创业成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1589</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000804</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信建投稳利混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002553</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时创业成长混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006844</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信建投稳利混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>